--- a/data/Misael HidalgoT3-2025.xlsx
+++ b/data/Misael HidalgoT3-2025.xlsx
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16.65751737999999</v>
+        <v>18.50835263999999</v>
       </c>
     </row>
   </sheetData>
